--- a/BajaTrip/BajaTripItinerary.xlsx
+++ b/BajaTrip/BajaTripItinerary.xlsx
@@ -203,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -211,18 +211,167 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,35 +669,35 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="50.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.375" customWidth="1"/>
-    <col min="5" max="5" width="44.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5"/>
+      <c r="A1" s="2"/>
       <c r="B1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
@@ -562,13 +711,13 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>42684</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
@@ -576,10 +725,11 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
@@ -587,10 +737,11 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="14">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
@@ -598,10 +749,11 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
@@ -609,10 +761,11 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="14">
         <v>0.75</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
@@ -620,10 +773,11 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="15">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
@@ -631,52 +785,52 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>42685</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="14">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="14">
         <v>0.625</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E14" t="s">
@@ -684,28 +838,28 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="15">
         <v>0.75</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4">
+      <c r="A16" s="6">
         <v>42686</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E16" t="s">
@@ -713,14 +867,14 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="14">
         <v>0.27083333333333331</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E17" t="s">
@@ -728,49 +882,49 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="14">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="15">
         <v>0.75</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1">
+      <c r="A21" s="6">
         <v>42687</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
@@ -778,10 +932,11 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="B22" s="2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="14">
         <v>0.375</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D22" t="s">
@@ -789,10 +944,11 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="B23" s="2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="14">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D23" t="s">
@@ -803,10 +959,11 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="14">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D24" t="s">
@@ -814,10 +971,11 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="15">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D25" t="s">
